--- a/インターフェース・継承周りの実験.xlsx
+++ b/インターフェース・継承周りの実験.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\Siryou\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>■newとIFの明示的実装とoverrideの違い</t>
     <rPh sb="8" eb="11">
@@ -66,12 +66,6 @@
     <t>((MyClass2)asClassInstance).Method1_1();</t>
   </si>
   <si>
-    <t>((MyInterface1)asClassInstance).Method1_1();</t>
-  </si>
-  <si>
-    <t>((MyInterface2)asClassInstance).Method1_1();</t>
-  </si>
-  <si>
     <t>asInterface.Method1_1();</t>
   </si>
   <si>
@@ -79,12 +73,6 @@
   </si>
   <si>
     <t>((MyClass2)asInterface).Method1_1();</t>
-  </si>
-  <si>
-    <t>((MyInterface1)asInterface).Method1_1();</t>
-  </si>
-  <si>
-    <t>((MyInterface2)asInterface).Method1_1();</t>
   </si>
   <si>
     <t>子クラスでメソッドを呼ぶ</t>
@@ -207,16 +195,6 @@
     </rPh>
     <rPh sb="19" eb="20">
       <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>子クラスでメソッドをどう実装するか</t>
-    <rPh sb="0" eb="1">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -246,11 +224,110 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>void MyInterface1.Method1_1() {}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>public override void  Method1_1() {}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パターン1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パターン2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パターン3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>子クラスでメソッドをどう実装するかのパターン</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://ufcpp.net/study/csharp/oo_interface.html?p=3#explicit-impl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>より、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">② </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※1</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>void IMyInterface1.Method1_1() {}</t>
+  </si>
+  <si>
+    <t>((IMyInterface1)asClassInstance).Method1_1();</t>
+  </si>
+  <si>
+    <t>((IMyInterface1)asInterface).Method1_1();</t>
+  </si>
+  <si>
+    <t>((IMyInterface2)asClassInstance).Method1_1();</t>
+  </si>
+  <si>
+    <t>((IMyInterface2)asInterface).Method1_1();</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">① </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※2</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">② </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>※3</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -258,7 +335,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,8 +351,35 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,8 +398,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -303,24 +419,153 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -341,15 +586,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>54219</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>78398</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>457688</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>149957</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>57218</xdr:rowOff>
+      <xdr:rowOff>49891</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -366,8 +611,46 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="76200" y="257175"/>
-          <a:ext cx="3496163" cy="485843"/>
+          <a:off x="54219" y="246917"/>
+          <a:ext cx="3495430" cy="477051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>271096</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2045314</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>91727</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="271096" y="4967654"/>
+          <a:ext cx="7906853" cy="1000265"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -642,227 +925,306 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.875" customWidth="1"/>
-    <col min="4" max="4" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.875" customWidth="1"/>
+    <col min="5" max="5" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="E8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="21" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="21" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>7</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="21" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>10</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>26</v>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B23" r:id="rId1" location="explicit-impl"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>